--- a/DB_export_Sklad.xlsx
+++ b/DB_export_Sklad.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Цифровые1</t>
+          <t>Цифровые</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
